--- a/testData/E-Com.xlsx
+++ b/testData/E-Com.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_GroTechMInd\E-Com\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_GroTechMInd\E-Com\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887DAB78-164C-45F6-BADB-777E07A18ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D031F2F-D8CC-4F46-82F1-C3D16C8DD783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="2280" windowWidth="21600" windowHeight="11235" xr2:uid="{40A5E49C-9409-46E9-9BB7-B77C98533AED}"/>
   </bookViews>
@@ -93,12 +93,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C89339A-5F0F-4840-873D-256F85DFF630}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,11 +447,11 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>9600255247</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
+      <c r="A3" s="3">
+        <v>123456</v>
+      </c>
+      <c r="B3" s="1">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -456,7 +459,7 @@
         <v>9600255247</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -464,6 +467,14 @@
         <v>9600255247</v>
       </c>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>9600255247</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -471,9 +482,9 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="arr2604@gmail.com" xr:uid="{E87615A7-4783-42FA-834A-F435581AEAC9}"/>
-    <hyperlink ref="A3" r:id="rId2" display="arr2604@gmail.com" xr:uid="{FCDB65D9-FE16-4F5E-B500-A889060228E8}"/>
-    <hyperlink ref="A4" r:id="rId3" display="arr2604@gmail.com" xr:uid="{3E7F2A19-F445-4ABB-9C92-64ECF6FFA622}"/>
-    <hyperlink ref="A5" r:id="rId4" display="arr2604@gmail.com" xr:uid="{DB5FF823-23F7-431C-847B-FE65763CAD0A}"/>
+    <hyperlink ref="A4" r:id="rId2" display="arr2604@gmail.com" xr:uid="{FCDB65D9-FE16-4F5E-B500-A889060228E8}"/>
+    <hyperlink ref="A5" r:id="rId3" display="arr2604@gmail.com" xr:uid="{3E7F2A19-F445-4ABB-9C92-64ECF6FFA622}"/>
+    <hyperlink ref="A6" r:id="rId4" display="arr2604@gmail.com" xr:uid="{DB5FF823-23F7-431C-847B-FE65763CAD0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testData/E-Com.xlsx
+++ b/testData/E-Com.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_GroTechMInd\E-Com\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D031F2F-D8CC-4F46-82F1-C3D16C8DD783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204756DB-4FB5-483F-9EB6-A89B18EA99AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="2280" windowWidth="21600" windowHeight="11235" xr2:uid="{40A5E49C-9409-46E9-9BB7-B77C98533AED}"/>
+    <workbookView xWindow="6705" yWindow="2100" windowWidth="21600" windowHeight="11235" xr2:uid="{40A5E49C-9409-46E9-9BB7-B77C98533AED}"/>
   </bookViews>
   <sheets>
     <sheet name="amazon" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>raja</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>rajaram</t>
   </si>
@@ -39,10 +36,10 @@
     <t>pwd</t>
   </si>
   <si>
-    <t>raja12</t>
+    <t>expectedErrorMsg</t>
   </si>
   <si>
-    <t>raja2604</t>
+    <t>Your password is incorrect</t>
   </si>
 </sst>
 </file>
@@ -58,18 +55,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color rgb="FF0F1111"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,24 +84,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,73 +409,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C89339A-5F0F-4840-873D-256F85DFF630}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>9600255247</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>9600255247</v>
+      </c>
+      <c r="B3" s="1">
         <v>123456</v>
       </c>
-      <c r="B3" s="1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>9600255247</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>9600255247</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>9600255247</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="arr2604@gmail.com" xr:uid="{E87615A7-4783-42FA-834A-F435581AEAC9}"/>
-    <hyperlink ref="A4" r:id="rId2" display="arr2604@gmail.com" xr:uid="{FCDB65D9-FE16-4F5E-B500-A889060228E8}"/>
-    <hyperlink ref="A5" r:id="rId3" display="arr2604@gmail.com" xr:uid="{3E7F2A19-F445-4ABB-9C92-64ECF6FFA622}"/>
-    <hyperlink ref="A6" r:id="rId4" display="arr2604@gmail.com" xr:uid="{DB5FF823-23F7-431C-847B-FE65763CAD0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>